--- a/public/file/ornek-ceza-sablonu.xlsx
+++ b/public/file/ornek-ceza-sablonu.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Berke Mert\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D75FF4D7-3CC4-421E-952A-1114E3E333CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26E63E60-1D2C-4104-A054-B22EC6D9435D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>PLAKA</t>
   </si>
@@ -117,9 +117,6 @@
     <t>CEZA_OZEL_ALAN_8</t>
   </si>
   <si>
-    <t>16 ORJ 16</t>
-  </si>
-  <si>
     <t>SURUCU</t>
   </si>
   <si>
@@ -145,9 +142,6 @@
   </si>
   <si>
     <t>BANKA HESAP</t>
-  </si>
-  <si>
-    <t>HIZ CEZASI</t>
   </si>
 </sst>
 </file>
@@ -183,9 +177,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -655,7 +648,7 @@
   <dimension ref="A1:AI2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -692,34 +685,34 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E1" t="s">
         <v>27</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>28</v>
-      </c>
-      <c r="F1" t="s">
-        <v>29</v>
       </c>
       <c r="G1" t="s">
         <v>3</v>
       </c>
       <c r="H1" t="s">
+        <v>29</v>
+      </c>
+      <c r="I1" t="s">
         <v>30</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>31</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>33</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>34</v>
-      </c>
-      <c r="M1" t="s">
-        <v>35</v>
       </c>
       <c r="N1" t="s">
         <v>4</v>
@@ -789,42 +782,9 @@
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B2" s="2">
-        <v>45825</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="G2">
-        <v>2100</v>
-      </c>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="R2" s="1"/>
-      <c r="S2" s="1"/>
-      <c r="T2" s="1"/>
-      <c r="U2" s="1"/>
-      <c r="V2" s="1"/>
-      <c r="W2" s="1"/>
-      <c r="X2" s="1"/>
-      <c r="Z2" s="2"/>
-      <c r="AB2" s="1"/>
-      <c r="AC2" s="1"/>
-      <c r="AD2" s="1"/>
-      <c r="AE2" s="1"/>
-      <c r="AF2" s="1"/>
-      <c r="AG2" s="1"/>
-      <c r="AH2" s="1"/>
-      <c r="AI2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="Z2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
